--- a/src/main/resources/data/raw data/2023/강남구/총무과/2023년 10월 업무추진비 공개_(총무과).xlsx
+++ b/src/main/resources/data/raw data/2023/강남구/총무과/2023년 10월 업무추진비 공개_(총무과).xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
-  <workbookPr codeName="현재_통합_문서"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\JavaProject\work\FreeMeal\src\main\resources\Data\Raw Data\강남구\총무과\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\2023년 총무과\업무추진비\예산집행 모니터링 업무추진비 공개\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EC8559-E981-454F-9C00-62D04BC0D1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="구청장" sheetId="1" r:id="rId1"/>
@@ -21,15 +20,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">구청장!$A$4:$H$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">부구청장!$A$4:$H$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">시책추진업무추진비!$A$4:$H$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">시책추진업무추진비!$A$4:$H$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">행정국장!$A$4:$H$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="427">
   <si>
     <t>승인일</t>
   </si>
@@ -1403,7 +1402,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -1693,12 +1692,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1716,7 +1717,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1741,6 +1742,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1774,16 +1778,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1804,52 +1808,88 @@
     <xf numFmtId="21" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="18" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="18" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="5" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1858,71 +1898,50 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="21" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="쉼표 [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="쉼표 [0] 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="쉼표 [0] 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="쉼표 [0] 2" xfId="1"/>
+    <cellStyle name="쉼표 [0] 3" xfId="2"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2200,50 +2219,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.59765625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="44" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" customHeight="1"/>
     <row r="3" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="17.25" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -2272,290 +2291,290 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="11">
         <v>45204</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="15">
         <v>50000</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="9" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="10" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="11">
         <v>45204</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="15">
         <v>50000</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="9" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="9">
         <v>3</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="15">
         <v>291000</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="9">
         <v>4</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="15">
         <v>152000</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>5</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>45217</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="15">
         <v>4426000</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A10" s="8">
+      <c r="A10" s="9">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="15">
         <v>4560000</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="11">
         <v>45225</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="15">
         <v>101400</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="9">
         <v>8</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="11">
         <v>45225</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="15">
         <v>31500</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="9">
         <v>9</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="15">
         <v>178000</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A14" s="8">
+      <c r="A14" s="9">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="15">
         <v>40000</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="9">
         <v>11</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="15">
         <v>30000</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>153</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H30" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I64">
+  <autoFilter ref="A4:H30">
+    <sortState ref="A5:I64">
       <sortCondition ref="B4:B49"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H47">
+  <sortState ref="A5:H47">
     <sortCondition ref="B5:B47"/>
     <sortCondition ref="C5:C47"/>
   </sortState>
@@ -2570,49 +2589,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="44" t="s">
         <v>175</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -2641,694 +2660,694 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="19">
+      <c r="A5" s="20">
         <v>1</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="26">
         <v>45203</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="18">
         <v>136000</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="19">
+      <c r="A6" s="20">
         <v>2</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="26">
         <v>45203</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="18">
         <v>310000</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="19">
+      <c r="A7" s="20">
         <v>3</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="26">
         <v>45204</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="24"/>
+      <c r="D7" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="18">
         <v>50000</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="17"/>
+      <c r="H7" s="10" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="19">
+      <c r="A8" s="20">
         <v>4</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="26">
         <v>45204</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="24"/>
+      <c r="D8" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="18">
         <v>50000</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="19">
+      <c r="A9" s="20">
         <v>5</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="26">
         <v>45204</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="24"/>
+      <c r="D9" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="18">
         <v>50000</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="9" t="s">
+      <c r="G9" s="17"/>
+      <c r="H9" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="19">
+      <c r="A10" s="20">
         <v>6</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="26">
         <v>45204</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="18">
         <v>50000</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="9" t="s">
+      <c r="G10" s="17"/>
+      <c r="H10" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="19">
+      <c r="A11" s="20">
         <v>7</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="26">
         <v>45204</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="18">
         <v>68400</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="19">
+      <c r="A12" s="20">
         <v>8</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="26">
         <v>45204</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="18">
         <v>28000</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="19">
+      <c r="A13" s="20">
         <v>9</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="26">
         <v>45205</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="18">
         <v>26700</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="19">
+      <c r="A14" s="20">
         <v>10</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="26">
         <v>45205</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="18">
         <v>43000</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="19">
+      <c r="A15" s="20">
         <v>11</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="18">
         <v>283000</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="19">
+      <c r="A16" s="20">
         <v>12</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="26">
         <v>45211</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="18">
         <v>53200</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="19">
+      <c r="A17" s="20">
         <v>13</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="26">
         <v>45211</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="18">
         <v>67000</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="19">
+      <c r="A18" s="20">
         <v>14</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="18">
         <v>73000</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="19">
+      <c r="A19" s="20">
         <v>15</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="26">
         <v>45218</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="18">
         <v>134000</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="19">
+      <c r="A20" s="20">
         <v>16</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="26">
         <v>45218</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="18">
         <v>60900</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="19">
+      <c r="A21" s="20">
         <v>17</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="18">
         <v>318000</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="19">
+      <c r="A22" s="20">
         <v>18</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="26">
         <v>45222</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="18">
         <v>54000</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="19">
+      <c r="A23" s="20">
         <v>19</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="26">
         <v>45222</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="18">
         <v>297000</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="19">
+      <c r="A24" s="20">
         <v>20</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="26">
         <v>45223</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="18">
         <v>33000</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="19">
+      <c r="A25" s="20">
         <v>21</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="26">
         <v>45223</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="18">
         <v>300000</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="H25" s="9" t="s">
+      <c r="H25" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="19">
+      <c r="A26" s="20">
         <v>22</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="26">
         <v>45224</v>
       </c>
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="18">
         <v>590000</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="19">
+      <c r="A27" s="20">
         <v>23</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="26">
         <v>45225</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="18">
         <v>191000</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="19">
+      <c r="A28" s="20">
         <v>24</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="26">
         <v>45225</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="18">
         <v>251000</v>
       </c>
-      <c r="G28" s="16" t="s">
+      <c r="G28" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="19">
+      <c r="A29" s="20">
         <v>25</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="26">
         <v>45226</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="24" t="s">
         <v>234</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="18">
         <v>64000</v>
       </c>
-      <c r="G29" s="16" t="s">
+      <c r="G29" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="19">
+      <c r="A30" s="20">
         <v>26</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="26">
         <v>45226</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="18">
         <v>103500</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="19">
+      <c r="A31" s="20">
         <v>27</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="18">
         <v>72000</v>
       </c>
-      <c r="G31" s="16" t="s">
+      <c r="G31" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="10" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A4:H29" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:I42">
+  <autoFilter ref="A4:H29"/>
+  <sortState ref="A5:I42">
     <sortCondition ref="B4"/>
   </sortState>
   <mergeCells count="2">
@@ -3342,49 +3361,49 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="58"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -3413,243 +3432,231 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18">
+      <c r="A5" s="19">
         <v>1</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="25">
         <v>45204</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="49" t="s">
         <v>247</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="18">
         <v>30000</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="19" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="25">
         <v>45204</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="18">
         <v>10000</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18">
+      <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="25">
         <v>45204</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="D7" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="18">
         <v>17000</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="18">
+      <c r="A8" s="19">
         <v>4</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="25">
         <v>45204</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="D8" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="18">
         <v>20000</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18">
+      <c r="A9" s="19">
         <v>5</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="25">
         <v>45211</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="18">
         <v>20000</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="19" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="18">
+      <c r="A10" s="19">
         <v>6</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="25">
         <v>45211</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="50"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="18">
+        <v>7300</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="19">
+        <v>7</v>
+      </c>
+      <c r="B11" s="25">
+        <v>45217</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E11" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="F10" s="17">
-        <v>7300</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="H10" s="18" t="s">
+      <c r="F11" s="18">
+        <v>38000</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="18">
-        <v>7</v>
-      </c>
-      <c r="B11" s="24">
-        <v>45217</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="D11" s="16" t="s">
+    <row r="12" spans="1:8">
+      <c r="A12" s="19">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25">
+        <v>45230</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>263</v>
+      </c>
+      <c r="F12" s="18">
+        <v>189000</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="19">
+        <v>9</v>
+      </c>
+      <c r="B13" s="25">
+        <v>45230</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E13" s="43" t="s">
         <v>257</v>
       </c>
-      <c r="F11" s="17">
-        <v>38000</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="18" t="s">
+      <c r="F13" s="18">
+        <v>32000</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="18">
-        <v>8</v>
-      </c>
-      <c r="B12" s="24">
-        <v>45230</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>262</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="F12" s="17">
-        <v>189000</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="18">
-        <v>9</v>
-      </c>
-      <c r="B13" s="24">
-        <v>45230</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="41" t="s">
-        <v>257</v>
-      </c>
-      <c r="F13" s="17">
-        <v>32000</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.26" right="0.17" top="0.56999999999999995" bottom="0.32" header="0.3" footer="0.3"/>
@@ -3658,2404 +3665,2371 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="44.25" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="44.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.8984375" style="32" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="27.8984375" style="30" customWidth="1"/>
+    <col min="1" max="1" width="4.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="27.875" style="31" customWidth="1"/>
     <col min="8" max="8" width="5.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="44.25" customHeight="1" thickBot="1">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1"/>
     <row r="3" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="22">
+      <c r="A5" s="23">
         <v>1</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="55">
         <v>45203</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="56">
         <v>214000</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="57" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="22">
+      <c r="A6" s="23">
         <v>2</v>
       </c>
-      <c r="B6" s="42">
+      <c r="B6" s="55">
         <v>45203</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="36" t="s">
         <v>268</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="56">
         <v>60000</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="57" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="22">
+      <c r="A7" s="23">
         <v>3</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="55">
         <v>45204</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="36" t="s">
         <v>271</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="56">
         <v>60000</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="21" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="57" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="22">
+      <c r="A8" s="23">
         <v>4</v>
       </c>
-      <c r="B8" s="42">
+      <c r="B8" s="55">
         <v>45204</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="36" t="s">
         <v>274</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="56">
         <v>114000</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="H8" s="44" t="s">
+      <c r="H8" s="57" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="22">
+      <c r="A9" s="23">
         <v>5</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="55">
         <v>45204</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="58">
         <v>233000</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="57" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="22">
+      <c r="A10" s="23">
         <v>6</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="60">
         <v>45204</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="69" t="s">
         <v>281</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="69" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="58">
         <v>150000</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="57" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="22">
+      <c r="A11" s="23">
         <v>7</v>
       </c>
-      <c r="B11" s="65">
-        <v>45204</v>
-      </c>
-      <c r="C11" s="47" t="s">
+      <c r="B11" s="61"/>
+      <c r="C11" s="62" t="s">
         <v>284</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="56">
+        <v>18000</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="23">
+        <v>8</v>
+      </c>
+      <c r="B12" s="63">
+        <v>45205</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="56">
+        <v>149000</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="23">
+        <v>9</v>
+      </c>
+      <c r="B13" s="63">
+        <v>45205</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="56">
+        <v>65000</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H13" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="23">
+        <v>10</v>
+      </c>
+      <c r="B14" s="63">
+        <v>45205</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="E11" s="55" t="s">
-        <v>282</v>
-      </c>
-      <c r="F11" s="43">
-        <v>18000</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="22">
-        <v>8</v>
-      </c>
-      <c r="B12" s="48">
+      <c r="E14" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="56">
+        <v>123000</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="23">
+        <v>11</v>
+      </c>
+      <c r="B15" s="64">
         <v>45205</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>285</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="C15" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="F15" s="56">
+        <v>151500</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="H15" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="23">
+        <v>12</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="62" t="s">
+        <v>297</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="56">
+        <v>33000</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="H16" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="23">
+        <v>13</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="62" t="s">
+        <v>298</v>
+      </c>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="56">
+        <v>47000</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="H17" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="23">
+        <v>14</v>
+      </c>
+      <c r="B18" s="63">
+        <v>45205</v>
+      </c>
+      <c r="C18" s="62" t="s">
+        <v>299</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="56">
+        <v>114000</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="H18" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="F12" s="43">
-        <v>149000</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="H12" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="22">
+      <c r="B19" s="64">
+        <v>45206</v>
+      </c>
+      <c r="C19" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" s="56">
+        <v>20300</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="23">
+        <v>16</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="62" t="s">
+        <v>306</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="56">
+        <v>230000</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="23">
+        <v>17</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="62" t="s">
+        <v>308</v>
+      </c>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="56">
+        <v>23700</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="23">
+        <v>18</v>
+      </c>
+      <c r="B22" s="64">
+        <v>45207</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>311</v>
+      </c>
+      <c r="F22" s="56">
+        <v>75000</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="H22" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="23">
+        <v>19</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="56">
+        <v>27500</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="H23" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="23">
+        <v>20</v>
+      </c>
+      <c r="B24" s="66"/>
+      <c r="C24" s="62" t="s">
+        <v>315</v>
+      </c>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="56">
+        <v>15000</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="23">
+        <v>21</v>
+      </c>
+      <c r="B25" s="63">
+        <v>45209</v>
+      </c>
+      <c r="C25" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="56">
+        <v>71500</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="H25" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="23">
+        <v>22</v>
+      </c>
+      <c r="B26" s="63">
+        <v>45209</v>
+      </c>
+      <c r="C26" s="62" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="48">
-        <v>45205</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="E13" s="16" t="s">
+      <c r="F26" s="56">
+        <v>48800</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="H26" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="23">
+        <v>23</v>
+      </c>
+      <c r="B27" s="63">
+        <v>45209</v>
+      </c>
+      <c r="C27" s="62" t="s">
+        <v>322</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="56">
+        <v>66000</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="H27" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="23">
+        <v>24</v>
+      </c>
+      <c r="B28" s="63">
+        <v>45209</v>
+      </c>
+      <c r="C28" s="62" t="s">
+        <v>325</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="F28" s="56">
+        <v>340000</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="23">
+        <v>25</v>
+      </c>
+      <c r="B29" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>328</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="56">
+        <v>74000</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="H29" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="23">
+        <v>26</v>
+      </c>
+      <c r="B30" s="63">
+        <v>45211</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="F30" s="56">
+        <v>185000</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="23">
+        <v>27</v>
+      </c>
+      <c r="B31" s="63">
+        <v>45211</v>
+      </c>
+      <c r="C31" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="56">
+        <v>54000</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="H31" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="23">
+        <v>28</v>
+      </c>
+      <c r="B32" s="63">
+        <v>45212</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="56">
+        <v>44000</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="23">
+        <v>29</v>
+      </c>
+      <c r="B33" s="63">
+        <v>45212</v>
+      </c>
+      <c r="C33" s="62" t="s">
+        <v>340</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="56">
+        <v>38000</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="H33" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="23">
+        <v>30</v>
+      </c>
+      <c r="B34" s="63">
+        <v>45212</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>343</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="56">
+        <v>57000</v>
+      </c>
+      <c r="G34" s="21" t="s">
+        <v>345</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="23">
+        <v>31</v>
+      </c>
+      <c r="B35" s="63">
+        <v>45212</v>
+      </c>
+      <c r="C35" s="62" t="s">
+        <v>346</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="56">
+        <v>44000</v>
+      </c>
+      <c r="G35" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="23">
+        <v>32</v>
+      </c>
+      <c r="B36" s="63">
+        <v>45212</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E36" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="56">
+        <v>266000</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="23">
+        <v>33</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>352</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="E37" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="56">
+        <v>60000</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>354</v>
+      </c>
+      <c r="H37" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="23">
+        <v>34</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>355</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="E38" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="56">
+        <v>54000</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="H38" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="23">
+        <v>35</v>
+      </c>
+      <c r="B39" s="64">
+        <v>45217</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="D39" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="E39" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="56">
+        <v>202000</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="23">
+        <v>36</v>
+      </c>
+      <c r="B40" s="66"/>
+      <c r="C40" s="62" t="s">
+        <v>360</v>
+      </c>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="56">
+        <v>42800</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="H40" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="23">
+        <v>37</v>
+      </c>
+      <c r="B41" s="63">
+        <v>45217</v>
+      </c>
+      <c r="C41" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="56">
+        <v>208000</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="H41" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="23">
+        <v>38</v>
+      </c>
+      <c r="B42" s="63">
+        <v>45217</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>365</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="56">
+        <v>158000</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="H42" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="23">
+        <v>39</v>
+      </c>
+      <c r="B43" s="63">
+        <v>45218</v>
+      </c>
+      <c r="C43" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="56">
+        <v>98000</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="H43" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="23">
+        <v>40</v>
+      </c>
+      <c r="B44" s="63">
+        <v>45218</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>370</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="E44" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="56">
+        <v>51000</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="23">
+        <v>41</v>
+      </c>
+      <c r="B45" s="63">
+        <v>45219</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>372</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E45" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F45" s="56">
+        <v>456000</v>
+      </c>
+      <c r="G45" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="H45" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="23">
+        <v>42</v>
+      </c>
+      <c r="B46" s="63">
+        <v>45219</v>
+      </c>
+      <c r="C46" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>376</v>
+      </c>
+      <c r="E46" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="56">
+        <v>54000</v>
+      </c>
+      <c r="G46" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="H46" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="23">
+        <v>43</v>
+      </c>
+      <c r="B47" s="63">
+        <v>45222</v>
+      </c>
+      <c r="C47" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="56">
+        <v>319000</v>
+      </c>
+      <c r="G47" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="23">
+        <v>44</v>
+      </c>
+      <c r="B48" s="63">
+        <v>45222</v>
+      </c>
+      <c r="C48" s="62" t="s">
+        <v>380</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="56">
+        <v>212000</v>
+      </c>
+      <c r="G48" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="23">
+        <v>45</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="56">
+        <v>32000</v>
+      </c>
+      <c r="G49" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="H49" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="23">
+        <v>46</v>
+      </c>
+      <c r="B50" s="63">
+        <v>45224</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>385</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="E50" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="43">
+      <c r="F50" s="56">
+        <v>56000</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H50" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="23">
+        <v>47</v>
+      </c>
+      <c r="B51" s="63">
+        <v>45225</v>
+      </c>
+      <c r="C51" s="62" t="s">
+        <v>387</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="F51" s="56">
+        <v>135000</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H51" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="23">
+        <v>48</v>
+      </c>
+      <c r="B52" s="63">
+        <v>45225</v>
+      </c>
+      <c r="C52" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="E52" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="56">
+        <v>110000</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="H52" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="23">
+        <v>49</v>
+      </c>
+      <c r="B53" s="63">
+        <v>45225</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>391</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>392</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="F53" s="56">
+        <v>240000</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="H53" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="23">
+        <v>50</v>
+      </c>
+      <c r="B54" s="63">
+        <v>45226</v>
+      </c>
+      <c r="C54" s="67" t="s">
+        <v>394</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>395</v>
+      </c>
+      <c r="E54" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="56">
+        <v>32000</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="H54" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="23">
+        <v>51</v>
+      </c>
+      <c r="B55" s="63">
+        <v>45226</v>
+      </c>
+      <c r="C55" s="62" t="s">
+        <v>397</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>398</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="56">
+        <v>275000</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="H55" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="23">
+        <v>52</v>
+      </c>
+      <c r="B56" s="63">
+        <v>45226</v>
+      </c>
+      <c r="C56" s="62" t="s">
+        <v>399</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>400</v>
+      </c>
+      <c r="E56" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="56">
+        <v>57000</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H56" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="23">
+        <v>53</v>
+      </c>
+      <c r="B57" s="63">
+        <v>45226</v>
+      </c>
+      <c r="C57" s="62" t="s">
+        <v>401</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="E57" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="56">
+        <v>36000</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="H57" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="23">
+        <v>54</v>
+      </c>
+      <c r="B58" s="63">
+        <v>45229</v>
+      </c>
+      <c r="C58" s="62" t="s">
+        <v>404</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="E58" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="56">
+        <v>54000</v>
+      </c>
+      <c r="G58" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="H58" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="23">
+        <v>55</v>
+      </c>
+      <c r="B59" s="63">
+        <v>45229</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>406</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>407</v>
+      </c>
+      <c r="E59" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="56">
+        <v>120000</v>
+      </c>
+      <c r="G59" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="H59" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="23">
+        <v>56</v>
+      </c>
+      <c r="B60" s="63">
+        <v>45229</v>
+      </c>
+      <c r="C60" s="62" t="s">
+        <v>409</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="E60" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="56">
+        <v>260000</v>
+      </c>
+      <c r="G60" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="H60" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="23">
+        <v>57</v>
+      </c>
+      <c r="B61" s="63">
+        <v>45230</v>
+      </c>
+      <c r="C61" s="62" t="s">
+        <v>412</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="E61" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="56">
+        <v>50000</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="H61" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="23">
+        <v>58</v>
+      </c>
+      <c r="B62" s="63">
+        <v>45230</v>
+      </c>
+      <c r="C62" s="62" t="s">
+        <v>415</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F62" s="56">
+        <v>50000</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>290</v>
+      </c>
+      <c r="H62" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="23">
+        <v>59</v>
+      </c>
+      <c r="B63" s="63">
+        <v>45230</v>
+      </c>
+      <c r="C63" s="62" t="s">
+        <v>417</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>418</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="56">
+        <v>62000</v>
+      </c>
+      <c r="G63" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="H63" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="23">
+        <v>60</v>
+      </c>
+      <c r="B64" s="63">
+        <v>45230</v>
+      </c>
+      <c r="C64" s="62" t="s">
+        <v>420</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>421</v>
+      </c>
+      <c r="E64" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="F64" s="56">
+        <v>468200</v>
+      </c>
+      <c r="G64" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="H64" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="23">
+        <v>61</v>
+      </c>
+      <c r="B65" s="63">
+        <v>45230</v>
+      </c>
+      <c r="C65" s="62" t="s">
+        <v>423</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="E65" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="56">
+        <v>43000</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H65" s="57" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="23">
+        <v>62</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E66" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="35">
+        <v>143000</v>
+      </c>
+      <c r="G66" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="23">
+        <v>63</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="D67" s="71" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="F67" s="35">
+        <v>94000</v>
+      </c>
+      <c r="G67" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="23">
+        <v>64</v>
+      </c>
+      <c r="B68" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" s="37">
+        <v>157000</v>
+      </c>
+      <c r="G68" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="23">
+        <v>65</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D69" s="71" t="s">
+        <v>425</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="37">
+        <v>82000</v>
+      </c>
+      <c r="G69" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="H69" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="23">
+        <v>66</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" s="35">
+        <v>63000</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="23">
+        <v>67</v>
+      </c>
+      <c r="B71" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" s="71" t="s">
+        <v>426</v>
+      </c>
+      <c r="E71" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F71" s="35">
+        <v>76000</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="23">
+        <v>68</v>
+      </c>
+      <c r="B72" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C72" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72" s="71" t="s">
+        <v>426</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" s="35">
+        <v>168000</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="23">
+        <v>69</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D73" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="E73" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" s="37">
+        <v>386000</v>
+      </c>
+      <c r="G73" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H73" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="23">
+        <v>70</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D74" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E74" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74" s="37">
+        <v>248000</v>
+      </c>
+      <c r="G74" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="23">
+        <v>71</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D75" s="42" t="s">
+        <v>425</v>
+      </c>
+      <c r="E75" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="F75" s="35">
+        <v>90500</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="23">
+        <v>72</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" s="71" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="37">
+        <v>193000</v>
+      </c>
+      <c r="G76" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="23">
+        <v>73</v>
+      </c>
+      <c r="B77" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="C77" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="E77" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" s="37">
+        <v>19600</v>
+      </c>
+      <c r="G77" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="23">
+        <v>74</v>
+      </c>
+      <c r="B78" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C78" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="D78" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E78" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" s="35">
         <v>65000</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="H13" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="22">
-        <v>10</v>
-      </c>
-      <c r="B14" s="48">
-        <v>45205</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>291</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="F14" s="43">
-        <v>123000</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="22">
-        <v>11</v>
-      </c>
-      <c r="B15" s="66">
-        <v>45205</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>293</v>
-      </c>
-      <c r="D15" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="F15" s="43">
-        <v>151500</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="H15" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="22">
-        <v>12</v>
-      </c>
-      <c r="B16" s="66">
-        <v>45205</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>297</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="F16" s="43">
-        <v>33000</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="22">
-        <v>13</v>
-      </c>
-      <c r="B17" s="66">
-        <v>45205</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>298</v>
-      </c>
-      <c r="D17" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="E17" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17" s="43">
-        <v>47000</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="H17" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="22">
-        <v>14</v>
-      </c>
-      <c r="B18" s="48">
-        <v>45205</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>299</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="43">
-        <v>114000</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="H18" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="22">
-        <v>15</v>
-      </c>
-      <c r="B19" s="66">
-        <v>45206</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="D19" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="E19" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="F19" s="43">
-        <v>20300</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="22">
-        <v>16</v>
-      </c>
-      <c r="B20" s="66">
-        <v>45206</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="D20" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="E20" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="F20" s="43">
-        <v>230000</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="H20" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="22">
-        <v>17</v>
-      </c>
-      <c r="B21" s="66">
-        <v>45206</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>308</v>
-      </c>
-      <c r="D21" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21" s="53" t="s">
-        <v>304</v>
-      </c>
-      <c r="F21" s="43">
-        <v>23700</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="22">
-        <v>18</v>
-      </c>
-      <c r="B22" s="66">
-        <v>45207</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>309</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="E22" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="F22" s="43">
-        <v>75000</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="H22" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="22">
-        <v>19</v>
-      </c>
-      <c r="B23" s="66">
-        <v>45207</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="D23" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="E23" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="F23" s="43">
-        <v>27500</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="H23" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="22">
-        <v>20</v>
-      </c>
-      <c r="B24" s="66">
-        <v>45207</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="D24" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="E24" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="F24" s="43">
-        <v>15000</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="22">
-        <v>21</v>
-      </c>
-      <c r="B25" s="48">
-        <v>45209</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="43">
-        <v>71500</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="22">
-        <v>22</v>
-      </c>
-      <c r="B26" s="48">
-        <v>45209</v>
-      </c>
-      <c r="C26" s="47" t="s">
-        <v>319</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="43">
-        <v>48800</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="22">
+      <c r="G78" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H78" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="48">
-        <v>45209</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="43">
-        <v>66000</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="H27" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="22">
-        <v>24</v>
-      </c>
-      <c r="B28" s="48">
-        <v>45209</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="F28" s="43">
-        <v>340000</v>
-      </c>
-      <c r="G28" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="22">
-        <v>25</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>328</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="43">
-        <v>74000</v>
-      </c>
-      <c r="G29" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="22">
-        <v>26</v>
-      </c>
-      <c r="B30" s="48">
-        <v>45211</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>331</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="F30" s="43">
-        <v>185000</v>
-      </c>
-      <c r="G30" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="H30" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="22">
-        <v>27</v>
-      </c>
-      <c r="B31" s="48">
-        <v>45211</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>334</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="43">
+    </row>
+    <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="23">
+        <v>75</v>
+      </c>
+      <c r="B79" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="C79" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E79" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F79" s="35">
+        <v>31600</v>
+      </c>
+      <c r="G79" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="23">
+        <v>76</v>
+      </c>
+      <c r="B80" s="38">
+        <v>45217</v>
+      </c>
+      <c r="C80" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="71" t="s">
+        <v>425</v>
+      </c>
+      <c r="E80" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="F80" s="39">
+        <v>121000</v>
+      </c>
+      <c r="G80" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="H80" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="24">
+      <c r="A81" s="23">
+        <v>77</v>
+      </c>
+      <c r="B81" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" s="71" t="s">
+        <v>116</v>
+      </c>
+      <c r="E81" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" s="37">
+        <v>65000</v>
+      </c>
+      <c r="G81" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="H81" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="23">
+        <v>78</v>
+      </c>
+      <c r="B82" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C82" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="E82" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82" s="37">
+        <v>41400</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="23">
+        <v>79</v>
+      </c>
+      <c r="B83" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C83" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D83" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="E83" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83" s="37">
+        <v>388800</v>
+      </c>
+      <c r="G83" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H83" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="23">
+        <v>80</v>
+      </c>
+      <c r="B84" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="C84" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F84" s="37">
+        <v>83500</v>
+      </c>
+      <c r="G84" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H84" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="23">
+        <v>81</v>
+      </c>
+      <c r="B85" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F85" s="37">
+        <v>16800</v>
+      </c>
+      <c r="G85" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="H85" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="23">
+        <v>82</v>
+      </c>
+      <c r="B86" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D86" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="E86" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F86" s="37">
+        <v>70400</v>
+      </c>
+      <c r="G86" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H86" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="23">
+        <v>83</v>
+      </c>
+      <c r="B87" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E87" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="F87" s="37">
+        <v>394500</v>
+      </c>
+      <c r="G87" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="H87" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="23">
+        <v>84</v>
+      </c>
+      <c r="B88" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C88" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="E88" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F88" s="37">
+        <v>88000</v>
+      </c>
+      <c r="G88" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H88" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="23">
+        <v>85</v>
+      </c>
+      <c r="B89" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D89" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" s="37">
+        <v>43500</v>
+      </c>
+      <c r="G89" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="H89" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="23">
+        <v>86</v>
+      </c>
+      <c r="B90" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="72" t="s">
+        <v>124</v>
+      </c>
+      <c r="F90" s="37">
+        <v>222000</v>
+      </c>
+      <c r="G90" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H90" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="23">
+        <v>87</v>
+      </c>
+      <c r="B91" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D91" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="F91" s="37">
+        <v>103000</v>
+      </c>
+      <c r="G91" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H91" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="23">
+        <v>88</v>
+      </c>
+      <c r="B92" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="D92" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F92" s="37">
         <v>54000</v>
       </c>
-      <c r="G31" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="H31" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="22">
-        <v>28</v>
-      </c>
-      <c r="B32" s="48">
-        <v>45212</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>337</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="43">
-        <v>44000</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="H32" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="22">
-        <v>29</v>
-      </c>
-      <c r="B33" s="48">
-        <v>45212</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>340</v>
-      </c>
-      <c r="D33" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="43">
-        <v>38000</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="22">
-        <v>30</v>
-      </c>
-      <c r="B34" s="48">
-        <v>45212</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>343</v>
-      </c>
-      <c r="D34" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="43">
-        <v>57000</v>
-      </c>
-      <c r="G34" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="22">
-        <v>31</v>
-      </c>
-      <c r="B35" s="48">
-        <v>45212</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>346</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="43">
-        <v>44000</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>348</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="22">
-        <v>32</v>
-      </c>
-      <c r="B36" s="48">
-        <v>45212</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>349</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" s="43">
-        <v>266000</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="22">
-        <v>33</v>
-      </c>
-      <c r="B37" s="48" t="s">
-        <v>351</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>352</v>
-      </c>
-      <c r="D37" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="43">
-        <v>60000</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>354</v>
-      </c>
-      <c r="H37" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="22">
-        <v>34</v>
-      </c>
-      <c r="B38" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="43">
-        <v>54000</v>
-      </c>
-      <c r="G38" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="H38" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="22">
-        <v>35</v>
-      </c>
-      <c r="B39" s="66">
-        <v>45217</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>358</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>359</v>
-      </c>
-      <c r="E39" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="43">
-        <v>202000</v>
-      </c>
-      <c r="G39" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="22">
-        <v>36</v>
-      </c>
-      <c r="B40" s="66">
-        <v>45217</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>360</v>
-      </c>
-      <c r="D40" s="53" t="s">
-        <v>359</v>
-      </c>
-      <c r="E40" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="43">
-        <v>42800</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="H40" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="22">
-        <v>37</v>
-      </c>
-      <c r="B41" s="48">
-        <v>45217</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>362</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41" s="43">
-        <v>208000</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>364</v>
-      </c>
-      <c r="H41" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="22">
-        <v>38</v>
-      </c>
-      <c r="B42" s="48">
-        <v>45217</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>365</v>
-      </c>
-      <c r="D42" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="43">
-        <v>158000</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="H42" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="22">
+      <c r="G92" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H92" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="48">
-        <v>45218</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>367</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="43">
-        <v>98000</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="H43" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="22">
-        <v>40</v>
-      </c>
-      <c r="B44" s="48">
-        <v>45218</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="43">
-        <v>51000</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="22">
-        <v>41</v>
-      </c>
-      <c r="B45" s="48">
-        <v>45219</v>
-      </c>
-      <c r="C45" s="47" t="s">
-        <v>372</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="F45" s="43">
-        <v>456000</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="H45" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="22">
-        <v>42</v>
-      </c>
-      <c r="B46" s="48">
-        <v>45219</v>
-      </c>
-      <c r="C46" s="47" t="s">
-        <v>375</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="43">
-        <v>54000</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="H46" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="22">
-        <v>43</v>
-      </c>
-      <c r="B47" s="48">
-        <v>45222</v>
-      </c>
-      <c r="C47" s="47" t="s">
-        <v>378</v>
-      </c>
-      <c r="D47" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47" s="43">
-        <v>319000</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="H47" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="22">
-        <v>44</v>
-      </c>
-      <c r="B48" s="48">
-        <v>45222</v>
-      </c>
-      <c r="C48" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="43">
-        <v>212000</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H48" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="22">
-        <v>45</v>
-      </c>
-      <c r="B49" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="47" t="s">
-        <v>382</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="43">
-        <v>32000</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="H49" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="22">
-        <v>46</v>
-      </c>
-      <c r="B50" s="48">
-        <v>45224</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>385</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="43">
-        <v>56000</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="H50" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="22">
-        <v>47</v>
-      </c>
-      <c r="B51" s="48">
-        <v>45225</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>387</v>
-      </c>
-      <c r="D51" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="F51" s="43">
-        <v>135000</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="22">
-        <v>48</v>
-      </c>
-      <c r="B52" s="48">
-        <v>45225</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>388</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="43">
-        <v>110000</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="H52" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="22">
-        <v>49</v>
-      </c>
-      <c r="B53" s="48">
-        <v>45225</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>391</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="F53" s="43">
-        <v>240000</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="H53" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="22">
-        <v>50</v>
-      </c>
-      <c r="B54" s="48">
-        <v>45226</v>
-      </c>
-      <c r="C54" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="43">
-        <v>32000</v>
-      </c>
-      <c r="G54" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="H54" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="22">
-        <v>51</v>
-      </c>
-      <c r="B55" s="48">
-        <v>45226</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>397</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="43">
-        <v>275000</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="H55" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="22">
-        <v>52</v>
-      </c>
-      <c r="B56" s="48">
-        <v>45226</v>
-      </c>
-      <c r="C56" s="47" t="s">
-        <v>399</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="43">
-        <v>57000</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="H56" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="22">
-        <v>53</v>
-      </c>
-      <c r="B57" s="48">
-        <v>45226</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="43">
-        <v>36000</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>403</v>
-      </c>
-      <c r="H57" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="22">
-        <v>54</v>
-      </c>
-      <c r="B58" s="48">
-        <v>45229</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>404</v>
-      </c>
-      <c r="D58" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="43">
-        <v>54000</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="H58" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="22">
-        <v>55</v>
-      </c>
-      <c r="B59" s="48">
-        <v>45229</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="D59" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="43">
-        <v>120000</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>408</v>
-      </c>
-      <c r="H59" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="22">
-        <v>56</v>
-      </c>
-      <c r="B60" s="48">
-        <v>45229</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>409</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" s="43">
-        <v>260000</v>
-      </c>
-      <c r="G60" s="20" t="s">
-        <v>411</v>
-      </c>
-      <c r="H60" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="22">
-        <v>57</v>
-      </c>
-      <c r="B61" s="48">
-        <v>45230</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>412</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="43">
-        <v>50000</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="H61" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="22">
-        <v>58</v>
-      </c>
-      <c r="B62" s="48">
-        <v>45230</v>
-      </c>
-      <c r="C62" s="47" t="s">
-        <v>415</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="43">
-        <v>50000</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>290</v>
-      </c>
-      <c r="H62" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="22">
-        <v>59</v>
-      </c>
-      <c r="B63" s="48">
-        <v>45230</v>
-      </c>
-      <c r="C63" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="43">
-        <v>62000</v>
-      </c>
-      <c r="G63" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="H63" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="22">
-        <v>60</v>
-      </c>
-      <c r="B64" s="48">
-        <v>45230</v>
-      </c>
-      <c r="C64" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="F64" s="43">
-        <v>468200</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>422</v>
-      </c>
-      <c r="H64" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="22">
-        <v>61</v>
-      </c>
-      <c r="B65" s="48">
-        <v>45230</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>423</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="43">
-        <v>43000</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H65" s="44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="22">
-        <v>62</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D66" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E66" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F66" s="34">
-        <v>143000</v>
-      </c>
-      <c r="G66" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="H66" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="22">
-        <v>63</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="D67" s="51" t="s">
+    </row>
+    <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="23">
+        <v>89</v>
+      </c>
+      <c r="B93" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="D93" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F67" s="34">
-        <v>94000</v>
-      </c>
-      <c r="G67" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H67" s="21" t="s">
+      <c r="E93" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" s="37">
+        <v>89000</v>
+      </c>
+      <c r="G93" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H93" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="22">
-        <v>64</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="E68" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F68" s="36">
-        <v>157000</v>
-      </c>
-      <c r="G68" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="H68" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="22">
-        <v>65</v>
-      </c>
-      <c r="B69" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="D69" s="51" t="s">
-        <v>425</v>
-      </c>
-      <c r="E69" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F69" s="36">
-        <v>82000</v>
-      </c>
-      <c r="G69" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H69" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="22">
-        <v>66</v>
-      </c>
-      <c r="B70" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F70" s="34">
-        <v>63000</v>
-      </c>
-      <c r="G70" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="H70" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="22">
-        <v>67</v>
-      </c>
-      <c r="B71" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F71" s="34">
-        <v>76000</v>
-      </c>
-      <c r="G71" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="H71" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="22">
-        <v>68</v>
-      </c>
-      <c r="B72" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D72" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="E72" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F72" s="34">
-        <v>168000</v>
-      </c>
-      <c r="G72" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H72" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="22">
-        <v>69</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D73" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F73" s="36">
-        <v>386000</v>
-      </c>
-      <c r="G73" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="H73" s="21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="22">
-        <v>70</v>
-      </c>
-      <c r="B74" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="E74" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="F74" s="36">
-        <v>248000</v>
-      </c>
-      <c r="G74" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="22">
-        <v>71</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F75" s="34">
-        <v>90500</v>
-      </c>
-      <c r="G75" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="H75" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="22">
-        <v>72</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C76" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D76" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F76" s="36">
-        <v>193000</v>
-      </c>
-      <c r="G76" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="H76" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="22">
-        <v>73</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E77" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F77" s="36">
-        <v>19600</v>
-      </c>
-      <c r="G77" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="H77" s="21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="22">
-        <v>74</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D78" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E78" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F78" s="34">
-        <v>65000</v>
-      </c>
-      <c r="G78" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="H78" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="22">
-        <v>75</v>
-      </c>
-      <c r="B79" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D79" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="E79" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F79" s="34">
-        <v>31600</v>
-      </c>
-      <c r="G79" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="H79" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="22">
-        <v>76</v>
-      </c>
-      <c r="B80" s="37">
-        <v>45217</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="D80" s="51" t="s">
-        <v>425</v>
-      </c>
-      <c r="E80" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="F80" s="38">
-        <v>121000</v>
-      </c>
-      <c r="G80" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="H80" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="26.4">
-      <c r="A81" s="22">
-        <v>77</v>
-      </c>
-      <c r="B81" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D81" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="E81" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F81" s="36">
-        <v>65000</v>
-      </c>
-      <c r="G81" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="H81" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="22">
-        <v>78</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="C82" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="D82" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E82" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F82" s="36">
-        <v>41400</v>
-      </c>
-      <c r="G82" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="H82" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="22">
-        <v>79</v>
-      </c>
-      <c r="B83" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C83" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="D83" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="F83" s="36">
-        <v>388800</v>
-      </c>
-      <c r="G83" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="H83" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="22">
-        <v>80</v>
-      </c>
-      <c r="B84" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F84" s="36">
-        <v>83500</v>
-      </c>
-      <c r="G84" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="H84" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="22">
-        <v>81</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F85" s="36">
-        <v>16800</v>
-      </c>
-      <c r="G85" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="H85" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="22">
-        <v>82</v>
-      </c>
-      <c r="B86" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D86" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="E86" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F86" s="36">
-        <v>70400</v>
-      </c>
-      <c r="G86" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="H86" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="22">
-        <v>83</v>
-      </c>
-      <c r="B87" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="C87" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="E87" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F87" s="36">
-        <v>394500</v>
-      </c>
-      <c r="G87" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="H87" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="22">
-        <v>84</v>
-      </c>
-      <c r="B88" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C88" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="D88" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F88" s="36">
-        <v>88000</v>
-      </c>
-      <c r="G88" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="H88" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="22">
-        <v>85</v>
-      </c>
-      <c r="B89" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C89" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D89" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="E89" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="F89" s="36">
-        <v>43500</v>
-      </c>
-      <c r="G89" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H89" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="22">
-        <v>86</v>
-      </c>
-      <c r="B90" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="D90" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E90" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="F90" s="36">
-        <v>222000</v>
-      </c>
-      <c r="G90" s="35" t="s">
-        <v>105</v>
-      </c>
-      <c r="H90" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="22">
-        <v>87</v>
-      </c>
-      <c r="B91" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D91" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E91" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="F91" s="36">
-        <v>103000</v>
-      </c>
-      <c r="G91" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="H91" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="22">
-        <v>88</v>
-      </c>
-      <c r="B92" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C92" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D92" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="E92" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="F92" s="36">
-        <v>54000</v>
-      </c>
-      <c r="G92" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="H92" s="21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="22">
-        <v>89</v>
-      </c>
-      <c r="B93" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F93" s="36">
-        <v>89000</v>
-      </c>
-      <c r="G93" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="H93" s="21" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:H93" xr:uid="{00000000-0009-0000-0000-000003000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H74">
+  <autoFilter ref="A4:H4">
+    <sortState ref="A5:H74">
       <sortCondition ref="A4"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H75">
+  <sortState ref="A5:H75">
     <sortCondition ref="B5:B75"/>
     <sortCondition ref="C5:C75"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="17">
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="E19:E21"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A3:H3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.26" right="0.17" top="0.59" bottom="0.32" header="0.3" footer="0.3"/>
